--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Nodal-Acvr2a.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H2">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I2">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J2">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N2">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P2">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q2">
-        <v>15.92346516331867</v>
+        <v>14.48827738741834</v>
       </c>
       <c r="R2">
-        <v>143.311186469868</v>
+        <v>130.394496486765</v>
       </c>
       <c r="S2">
-        <v>0.155139006825701</v>
+        <v>0.1544143608311015</v>
       </c>
       <c r="T2">
-        <v>0.155139006825701</v>
+        <v>0.1544143608311015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H3">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I3">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J3">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>27.084169</v>
       </c>
       <c r="N3">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P3">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q3">
-        <v>29.501349830743</v>
+        <v>27.39884190349834</v>
       </c>
       <c r="R3">
-        <v>265.512148476687</v>
+        <v>246.589577131485</v>
       </c>
       <c r="S3">
-        <v>0.2874255110817326</v>
+        <v>0.2920136429548978</v>
       </c>
       <c r="T3">
-        <v>0.2874255110817325</v>
+        <v>0.2920136429548978</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.089247</v>
+        <v>1.011618333333334</v>
       </c>
       <c r="H4">
-        <v>3.267741</v>
+        <v>3.034855</v>
       </c>
       <c r="I4">
-        <v>0.5826095452486192</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="J4">
-        <v>0.5826095452486191</v>
+        <v>0.5235149663433657</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N4">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P4">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q4">
-        <v>14.37421935199567</v>
+        <v>7.232858980689445</v>
       </c>
       <c r="R4">
-        <v>129.367974167961</v>
+        <v>65.095730826205</v>
       </c>
       <c r="S4">
-        <v>0.1400450273411856</v>
+        <v>0.07708696255736626</v>
       </c>
       <c r="T4">
-        <v>0.1400450273411856</v>
+        <v>0.07708696255736625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.680725</v>
       </c>
       <c r="I5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J5">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N5">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P5">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q5">
-        <v>8.190051165811111</v>
+        <v>8.023714481241665</v>
       </c>
       <c r="R5">
-        <v>73.7104604923</v>
+        <v>72.213430331175</v>
       </c>
       <c r="S5">
-        <v>0.07979396385672129</v>
+        <v>0.08551580771003989</v>
       </c>
       <c r="T5">
-        <v>0.07979396385672129</v>
+        <v>0.0855158077100399</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.680725</v>
       </c>
       <c r="I6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J6">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,13 +803,13 @@
         <v>27.084169</v>
       </c>
       <c r="N6">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P6">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q6">
         <v>15.17367998084167</v>
@@ -818,10 +818,10 @@
         <v>136.563119827575</v>
       </c>
       <c r="S6">
-        <v>0.1478340058507834</v>
+        <v>0.1617193012698697</v>
       </c>
       <c r="T6">
-        <v>0.1478340058507834</v>
+        <v>0.1617193012698698</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.680725</v>
       </c>
       <c r="I7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016711</v>
       </c>
       <c r="J7">
-        <v>0.2996585188171233</v>
+        <v>0.2899264353016712</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N7">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P7">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q7">
-        <v>7.393214401136111</v>
+        <v>4.005610452663888</v>
       </c>
       <c r="R7">
-        <v>66.538929610225</v>
+        <v>36.050494073975</v>
       </c>
       <c r="S7">
-        <v>0.07203054910961859</v>
+        <v>0.04269132632176146</v>
       </c>
       <c r="T7">
-        <v>0.07203054910961859</v>
+        <v>0.04269132632176146</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,22 +900,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H8">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J8">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.61878266666667</v>
+        <v>14.321881</v>
       </c>
       <c r="N8">
-        <v>43.856348</v>
+        <v>42.965643</v>
       </c>
       <c r="O8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="P8">
-        <v>0.2662829816142095</v>
+        <v>0.2949569176783066</v>
       </c>
       <c r="Q8">
-        <v>3.217764617397777</v>
+        <v>5.163009456737999</v>
       </c>
       <c r="R8">
-        <v>28.95988155657999</v>
+        <v>46.467085110642</v>
       </c>
       <c r="S8">
-        <v>0.0313500109317872</v>
+        <v>0.05502674913716513</v>
       </c>
       <c r="T8">
-        <v>0.03135001093178721</v>
+        <v>0.05502674913716513</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,22 +962,22 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H9">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J9">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,25 +989,25 @@
         <v>27.084169</v>
       </c>
       <c r="N9">
-        <v>81.25250699999999</v>
+        <v>81.25250700000001</v>
       </c>
       <c r="O9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="P9">
-        <v>0.4933415757187404</v>
+        <v>0.557794259435499</v>
       </c>
       <c r="Q9">
-        <v>5.961541578871666</v>
+        <v>9.763788756162</v>
       </c>
       <c r="R9">
-        <v>53.65387420984499</v>
+        <v>87.874098805458</v>
       </c>
       <c r="S9">
-        <v>0.05808205878622443</v>
+        <v>0.1040613152107314</v>
       </c>
       <c r="T9">
-        <v>0.05808205878622444</v>
+        <v>0.1040613152107314</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,22 +1024,22 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2201116666666666</v>
+        <v>0.360498</v>
       </c>
       <c r="H10">
-        <v>0.6603349999999999</v>
+        <v>1.081494</v>
       </c>
       <c r="I10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="J10">
-        <v>0.1177319359342576</v>
+        <v>0.1865585983549632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.19647366666667</v>
+        <v>7.149790333333333</v>
       </c>
       <c r="N10">
-        <v>39.589421</v>
+        <v>21.449371</v>
       </c>
       <c r="O10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861944</v>
       </c>
       <c r="P10">
-        <v>0.2403754426670502</v>
+        <v>0.1472488228861943</v>
       </c>
       <c r="Q10">
-        <v>2.904697812892778</v>
+        <v>2.577485115586</v>
       </c>
       <c r="R10">
-        <v>26.142280316035</v>
+        <v>23.197366040274</v>
       </c>
       <c r="S10">
-        <v>0.02829986621624596</v>
+        <v>0.02747053400706665</v>
       </c>
       <c r="T10">
-        <v>0.02829986621624596</v>
+        <v>0.02747053400706664</v>
       </c>
     </row>
   </sheetData>
